--- a/metrics/du.xlsx.xlsx
+++ b/metrics/du.xlsx.xlsx
@@ -8,15 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gordon\SMU\IS212\GitHub\project-g3t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF810E7-D77B-4459-89BB-928FA3C009B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2126017E-E1FF-4B17-BB71-6BB75050098E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 4" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjPz7041en4kqVmMX8uRj1X3mEGIQ=="/>
     </ext>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>Person</t>
   </si>
@@ -105,10 +111,34 @@
     <t>Created a directory structure</t>
   </si>
   <si>
-    <t>Finish up the schedule for the entire project</t>
+    <t>Difficulty estimating work done for each task</t>
   </si>
   <si>
-    <t>Difficulty estimating work done for each task</t>
+    <t>Create student home page, basic add/view/drop bid pages, css stylesheet</t>
+  </si>
+  <si>
+    <t>Non-working day</t>
+  </si>
+  <si>
+    <t>Integrating different variable names used by team members and I for DAO classes</t>
+  </si>
+  <si>
+    <t>Finished authentication/error handling of login page</t>
+  </si>
+  <si>
+    <t>User could access some pages without logging in, indicating that we need to do a protect.php page</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Do up the schedule for the entire project</t>
+  </si>
+  <si>
+    <t>Check forum, project wiki and update requirements and finalize schedule</t>
+  </si>
+  <si>
+    <t>Scheduling for the project</t>
   </si>
 </sst>
 </file>
@@ -476,9 +506,9 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H17" sqref="H17"/>
+      <selection pane="topRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -583,7 +613,9 @@
       <c r="H3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="6"/>
+      <c r="I3" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
@@ -598,7 +630,9 @@
       <c r="H4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="6"/>
+      <c r="I4" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
@@ -613,7 +647,9 @@
       <c r="H5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="6"/>
+      <c r="I5" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
@@ -630,7 +666,9 @@
       <c r="H6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="6"/>
+      <c r="I6" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
@@ -645,7 +683,9 @@
       <c r="H7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="6"/>
+      <c r="I7" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
@@ -660,7 +700,9 @@
       <c r="H8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="6"/>
+      <c r="I8" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
@@ -677,7 +719,9 @@
       <c r="H9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="6"/>
+      <c r="I9" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
@@ -692,7 +736,9 @@
       <c r="H10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="6"/>
+      <c r="I10" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
@@ -707,7 +753,9 @@
       <c r="H11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="6"/>
+      <c r="I11" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
@@ -724,7 +772,9 @@
       <c r="H12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="6"/>
+      <c r="I12" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
@@ -739,7 +789,9 @@
       <c r="H13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="6"/>
+      <c r="I13" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
@@ -754,7 +806,9 @@
       <c r="H14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="6"/>
+      <c r="I14" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
@@ -771,7 +825,9 @@
       <c r="H15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="7"/>
+      <c r="I15" s="7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
@@ -784,9 +840,11 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
@@ -799,9 +857,11 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
@@ -10068,6 +10128,6 @@
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>